--- a/testcase/4-1-LF-CONVERG-EVI10-20-SRX-L3VPN/-RESULTS.xlsx
+++ b/testcase/4-1-LF-CONVERG-EVI10-20-SRX-L3VPN/-RESULTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tplisson/Dropbox/dvt-evpn-mpls/testcase/4.1-LF-CONVERG-EVI10-20-SRX-L3VPN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tplisson/Dropbox/dvt-evpn-mpls/testcase/4-1-LF-CONVERG-EVI10-20-SRX-L3VPN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55B106-9B92-7442-9F6B-76C0260CDD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9EE07B-C361-1148-AA7C-F79DDE687F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{C8F6BCD9-09B2-8F4B-AFC8-10454014A4A1}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="165" formatCode="0\.00"/>
     <numFmt numFmtId="166" formatCode="00\.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,15 +119,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,7 +127,22 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,68 +323,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,138 +704,140 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D12"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="11"/>
+    <col min="7" max="11" width="6.83203125" style="6" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="22"/>
+    <col min="16" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="9">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5">
         <f>AVERAGE(L3:L22)</f>
         <v>11.879999999999999</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="5">
         <f>MIN(M3:M22)</f>
         <v>6.7</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="5">
         <f>MAX(N3:N22)</f>
         <v>22.6</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="5">
         <f>AVERAGE(O3:O22)</f>
         <v>7.2714285714285705</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="14">
         <v>1000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="14">
         <v>1000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="15">
         <v>72</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="15">
         <v>72</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="15">
         <v>156</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="15">
         <v>68</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="15">
         <v>226</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="16">
         <f>AVERAGE(G3:K3)/10</f>
         <v>11.879999999999999</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="16">
         <f>MIN(G3:K3)/10</f>
         <v>6.8</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="16">
         <f>MAX(G3:K3)/10</f>
         <v>22.6</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="16">
         <f>MEDIAN(G3:K3)/10</f>
         <v>7.2</v>
       </c>
@@ -836,72 +846,72 @@
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="3">
+      <c r="D4" s="18"/>
+      <c r="E4" s="14">
         <v>1001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="14">
         <v>1001</v>
       </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="3">
+      <c r="D5" s="18"/>
+      <c r="E5" s="14">
         <v>1002</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="15">
         <v>72</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="15">
         <v>73</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="15">
         <v>156</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="15">
         <v>67</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="15">
         <v>225</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="16">
         <f>AVERAGE(G5:K5)/10</f>
         <v>11.86</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="16">
         <f>MIN(G5:K5)/10</f>
         <v>6.7</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="16">
         <f>MAX(G5:K5)/10</f>
         <v>22.5</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="16">
         <f>MEDIAN(G5:K5)/10</f>
         <v>7.3</v>
       </c>
@@ -910,72 +920,72 @@
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3">
+      <c r="D6" s="18"/>
+      <c r="E6" s="14">
         <v>1003</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="3">
+      <c r="D7" s="18"/>
+      <c r="E7" s="14">
         <v>1004</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="15">
         <v>72</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="15">
         <v>73</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="15">
         <v>156</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="15">
         <v>68</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="15">
         <v>225</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="16">
         <f>AVERAGE(G7:K7)/10</f>
         <v>11.879999999999999</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="16">
         <f>MIN(G7:K7)/10</f>
         <v>6.8</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="16">
         <f>MAX(G7:K7)/10</f>
         <v>22.5</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="16">
         <f>MEDIAN(G7:K7)/10</f>
         <v>7.3</v>
       </c>
@@ -984,72 +994,72 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="3">
+      <c r="D8" s="18"/>
+      <c r="E8" s="14">
         <v>1005</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="3">
+      <c r="D9" s="18"/>
+      <c r="E9" s="14">
         <v>1006</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="15">
         <v>72</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="15">
         <v>72</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="15">
         <v>156</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="15">
         <v>68</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="15">
         <v>225</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="16">
         <f>AVERAGE(G9:K9)/10</f>
         <v>11.86</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="16">
         <f>MIN(G9:K9)/10</f>
         <v>6.8</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="16">
         <f>MAX(G9:K9)/10</f>
         <v>22.5</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="16">
         <f>MEDIAN(G9:K9)/10</f>
         <v>7.2</v>
       </c>
@@ -1058,103 +1068,103 @@
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="3">
+      <c r="D10" s="18"/>
+      <c r="E10" s="14">
         <v>1007</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2</v>
+      </c>
+      <c r="J10" s="15">
+        <v>2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>2</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="3">
+      <c r="D11" s="18"/>
+      <c r="E11" s="14">
         <v>1008</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2</v>
-      </c>
-      <c r="I11" s="10">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10">
-        <v>2</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="G11" s="15">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="3">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14">
         <v>1009</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="15">
         <v>72</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="15">
         <v>73</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="15">
         <v>156</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="15">
         <v>68</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="15">
         <v>226</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="16">
         <f>AVERAGE(G12:K12)/10</f>
         <v>11.9</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="16">
         <f>MIN(G12:K12)/10</f>
         <v>6.8</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="16">
         <f>MAX(G12:K12)/10</f>
         <v>22.6</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="16">
         <f>MEDIAN(G12:K12)/10</f>
         <v>7.3</v>
       </c>
@@ -1162,108 +1172,108 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="14">
         <v>1000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="14">
         <v>1000</v>
       </c>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="G13" s="15">
+        <v>2</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="3">
+      <c r="D14" s="18"/>
+      <c r="E14" s="14">
         <v>1001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="14">
         <v>1001</v>
       </c>
-      <c r="G14" s="10">
-        <v>2</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="3">
+      <c r="D15" s="18"/>
+      <c r="E15" s="14">
         <v>1002</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="14">
         <v>1002</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="15">
         <v>72</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="15">
         <v>73</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="15">
         <v>156</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="15">
         <v>68</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="15">
         <v>225</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="16">
         <f>AVERAGE(G15:K15)/10</f>
         <v>11.879999999999999</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="16">
         <f>MIN(G15:K15)/10</f>
         <v>6.8</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="16">
         <f>MAX(G15:K15)/10</f>
         <v>22.5</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="16">
         <f>MEDIAN(G15:K15)/10</f>
         <v>7.3</v>
       </c>
@@ -1272,233 +1282,233 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="3">
+      <c r="D16" s="18"/>
+      <c r="E16" s="14">
         <v>1003</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="14">
         <v>1003</v>
       </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="3">
+      <c r="D17" s="18"/>
+      <c r="E17" s="14">
         <v>1004</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="14">
         <v>1004</v>
       </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10">
-        <v>2</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="3">
+      <c r="D18" s="18"/>
+      <c r="E18" s="14">
         <v>1005</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="14">
         <v>1005</v>
       </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="3">
+      <c r="D19" s="18"/>
+      <c r="E19" s="14">
         <v>1006</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="14">
         <v>1006</v>
       </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10">
-        <v>2</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <v>2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="3">
+      <c r="D20" s="18"/>
+      <c r="E20" s="14">
         <v>1007</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="14">
         <v>1007</v>
       </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>2</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>2</v>
-      </c>
-      <c r="K20" s="10">
-        <v>2</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <v>2</v>
+      </c>
+      <c r="K20" s="15">
+        <v>2</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="3">
+      <c r="D21" s="18"/>
+      <c r="E21" s="14">
         <v>1008</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="14">
         <v>1008</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2</v>
-      </c>
-      <c r="I21" s="10">
-        <v>2</v>
-      </c>
-      <c r="J21" s="10">
-        <v>2</v>
-      </c>
-      <c r="K21" s="10">
-        <v>2</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2</v>
+      </c>
+      <c r="K21" s="15">
+        <v>2</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="14">
         <v>1009</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="14">
         <v>1009</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="15">
         <v>71</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="15">
         <v>73</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="15">
         <v>157</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="15">
         <v>68</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="15">
         <v>226</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="16">
         <f>AVERAGE(G22:K22)/10</f>
         <v>11.9</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="16">
         <f>MIN(G22:K22)/10</f>
         <v>6.8</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="16">
         <f>MAX(G22:K22)/10</f>
         <v>22.6</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="16">
         <f>MEDIAN(G22:K22)/10</f>
         <v>7.3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G23" s="7"/>
+      <c r="G23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
